--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FE_Procurite\Desktop\march2022\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A7A7CA-A7A5-41C2-A0DE-CFC2C6E84CF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A5A351-50C2-46C0-9A88-12BA5D265F25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7995" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>LoginPayload</t>
-  </si>
-  <si>
-    <t>{"email":"jogidemo321@gmail.com","password":"builder123"}</t>
   </si>
   <si>
     <t>IncorrectLoginPayload</t>
@@ -1621,6 +1618,9 @@
     "Message"
   ]
 }</t>
+  </si>
+  <si>
+    <t>{"email":"testlabs321@gmail.com","password":"builder123"}</t>
   </si>
 </sst>
 </file>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2067,18 +2067,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2152,23 +2152,23 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2181,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2200,50 +2200,50 @@
     </row>
     <row r="2" spans="1:2" ht="409.5">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="409.5">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.5">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="409.5">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FE_Procurite\Desktop\march2022\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A5A351-50C2-46C0-9A88-12BA5D265F25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB85975E-94E3-4A98-B5F1-6D94E0D0F9EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,7 +1620,7 @@
 }</t>
   </si>
   <si>
-    <t>{"email":"testlabs321@gmail.com","password":"builder123"}</t>
+    <t>{"email":"testlabs@gmail.com","password":"builder123"}</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2130,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
